--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -40,7 +40,7 @@
     <t>풍속(m/s)</t>
   </si>
   <si>
-    <t>Seoul</t>
+    <t>seoul</t>
   </si>
   <si>
     <t>연무</t>
@@ -441,22 +441,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5.76</v>
+        <v>6.76</v>
       </c>
       <c r="D2">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="E2">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F2">
-        <v>5.78</v>
+        <v>6.76</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>2.57</v>
+        <v>3.09</v>
       </c>
     </row>
   </sheetData>
